--- a/audit-SEO.xlsx
+++ b/audit-SEO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRS\Desktop\openclassrooms\P4 Loris Bartolini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRS\Desktop\openclassrooms\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FFB0E8-0A74-45A6-B6E2-EF31E86F7FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511EE0C5-D2A9-4D5D-8B1B-E62DD14BDD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3372" yWindow="480" windowWidth="16800" windowHeight="11568" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
   <si>
     <t>Catégorie</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Pour un SEO optimal chaque page devra avoir au minimum 400 mots par pages</t>
   </si>
   <si>
-    <t>attention au certaine image incohérante</t>
-  </si>
-  <si>
     <t>attention a minifier les fichiers</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t>les mot cles du keyword se resembles tous, il ne sont plus utilisé afin optimisé le CEO de google mais d'autres moteurs de recherche peuvent s'en servirent, utilisé plus de types de mots (géneraliste, marques, transactionnel, locaux.</t>
   </si>
   <si>
-    <t>mettre un format image small afin que le fichier sois moin lourd.</t>
-  </si>
-  <si>
     <t>image trop volumineuse cela peu reduire le temp de chargement et pénalisé le site pour le referencement du SEO</t>
   </si>
   <si>
@@ -276,12 +270,6 @@
     <t>Pour chaque icône de réseau social, ajouter dans la balise &lt;a class ‘’social’’ href= ‘’index.html’’&gt; en remplacent ‘’index.html’’ par l’url de la page concernée.</t>
   </si>
   <si>
-    <t>mettre du text à la place des images</t>
-  </si>
-  <si>
-    <t>ne mettre seulement les caractére utile pour le contenu de la page</t>
-  </si>
-  <si>
     <t>certaines de ces images n'aparaissent pas et cela posera probleme donc au chargement et au SEO</t>
   </si>
   <si>
@@ -294,33 +282,18 @@
     <t>les lien des diférent résaux sociaux renvoi en haut de page de plus les lien des diférent résaux sociaux ne se trouve pas dans le footer de la page contact.</t>
   </si>
   <si>
-    <t>erreur 404 pour plusieur fichier css et javascript dans la page contact, a cause de la nature mim du fichier incorrect</t>
-  </si>
-  <si>
     <t>https://developer.mozilla.org/fr/docs/Web/HTTP/Headers/X-Content-Type-Options</t>
   </si>
   <si>
-    <t>débugger les fichiers déféctueux</t>
-  </si>
-  <si>
     <t>https://thibautsoufflet.fr/blog/pourquoi-et-comment-minifier-vos-fichiers-css-html-et-javascript/</t>
   </si>
   <si>
     <t>absence de la balise meta robot dans le head</t>
   </si>
   <si>
-    <t>sans la balise meta robot les pages ne peuvent etre indexer par google</t>
-  </si>
-  <si>
     <t>mettre la balise en spécifiant les page ainsi que les lien qui devront etre annexer</t>
   </si>
   <si>
-    <t>en debut de page il y a des div cachées (classe keyword) et cela est considéré comme du black hat d'une pars le text est de la meme couleur que le fond blanc et sa est de 1PX algorithme de google peu les repérer</t>
-  </si>
-  <si>
-    <t>retirer ces div</t>
-  </si>
-  <si>
     <t>https://living-sun.com/fr/javascript/359381-my-pictures-are-not-shown-in-html-javascript-html-css.html</t>
   </si>
   <si>
@@ -333,7 +306,49 @@
     <t>https://blog.atalan.fr/discussions-seo-et-hierarchie-de-titres-h1-h2/</t>
   </si>
   <si>
-    <t>https://www.webrankinfo.com/dossiers/conseils/balise-meta-robots</t>
+    <t>en debut de page il y a des div cachées (classe keyword) et cela est considéré comme du black hat d'une pars le text est de la meme couleur que le fond blanc et sa est de 1PX algorithme de google peu les repérer, de plus il y a un boutton invisible dans le footer de la page contact</t>
+  </si>
+  <si>
+    <t>seo/accessibilité</t>
+  </si>
+  <si>
+    <t>erreur 404 pour plusieur fichier css et javascript dans la page contact, à cause de la nature mim du fichier incorrect, cela est du a cause de erreur de frappe des classes dans le css vers le html.</t>
+  </si>
+  <si>
+    <t>SEO local non defini</t>
+  </si>
+  <si>
+    <t>la balise &lt;meta &gt;keyword du head indique dans sont content agence design paris, or l'agence est basé à lyon.</t>
+  </si>
+  <si>
+    <t>rectifier l'erreur en indiquant une balise local qui correspond a l'adresse de l'agence.</t>
+  </si>
+  <si>
+    <t>https://smartkeyword.io/seo-technique-seo-balise-meta-robots/#:~:text=La%20balise%20meta%20robots%20%3A%20la%20n%C3%A9cessit%C3%A9%20d'une%20bonne%20impl%C3%A9mentation&amp;text=La%20balise%20meta%20robots%20permet,il%20rencontre%20dans%20ce%20contenu.</t>
+  </si>
+  <si>
+    <t>https://uberall.com/fr/solutions/objectives/seo-local?utm_campaign=16267437578&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_content=133489069597&amp;utm_term=local%20seo&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=all-web-ent-st-1-lg-2022-solution_pages&amp;utm_content=fr&amp;gclid=EAIaIQobChMIgfPbw-rg9gIVT7LVCh2_bQPzEAAYASAAEgJkPvD_BwE</t>
+  </si>
+  <si>
+    <t>mettre un format image small afin que le fichier sois moin lourd.kbit?</t>
+  </si>
+  <si>
+    <t>attention au certaine text sous forme d'image</t>
+  </si>
+  <si>
+    <t>minifier tout les fichier egalement ceux de la page d'acceuil</t>
+  </si>
+  <si>
+    <t>sans la balise meta robot les pages ne peuvent etre indexer par google pour donner des instruction claire</t>
+  </si>
+  <si>
+    <t>mettre du text à la place des images et réécrire le text de l'image du meme style que celui de la page.</t>
+  </si>
+  <si>
+    <t>retirer ces div caché ou les rendre visible dans la pages</t>
+  </si>
+  <si>
+    <t>ne mettre seulement les caractére utile pour le contenu de la page et minifier la page via des outils externe en ligne "css compressor.net"</t>
   </si>
 </sst>
 </file>
@@ -391,7 +406,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +422,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -461,6 +482,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -681,18 +705,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.1796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.90625" style="1" customWidth="1"/>
     <col min="7" max="26" width="10.54296875" style="1" customWidth="1"/>
     <col min="27" max="16384" width="11.26953125" style="1"/>
   </cols>
@@ -891,7 +915,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
@@ -906,10 +930,10 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>37</v>
@@ -924,13 +948,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1" t="s">
@@ -981,7 +1005,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>54</v>
@@ -992,33 +1016,33 @@
     </row>
     <row r="16" spans="1:26" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>52</v>
@@ -1026,70 +1050,70 @@
     </row>
     <row r="18" spans="1:6" ht="106.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1097,16 +1121,16 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1114,37 +1138,53 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="106.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
